--- a/data_year/zb/人民生活/全国居民主要食品消费量.xlsx
+++ b/data_year/zb/人民生活/全国居民主要食品消费量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.1</v>
+        <v>12.0990725459</v>
       </c>
       <c r="C4" t="n">
-        <v>44.5</v>
+        <v>44.4889279027</v>
       </c>
       <c r="D4" t="n">
-        <v>11.2</v>
+        <v>11.1841151296</v>
       </c>
       <c r="E4" t="n">
-        <v>8.4</v>
+        <v>8.357796220099999</v>
       </c>
       <c r="F4" t="n">
-        <v>134.5</v>
+        <v>134.4981458801</v>
       </c>
       <c r="G4" t="n">
-        <v>26.2</v>
+        <v>26.204610738</v>
       </c>
       <c r="H4" t="n">
-        <v>97.8</v>
+        <v>97.817770129</v>
       </c>
       <c r="I4" t="n">
-        <v>9.5</v>
+        <v>9.459943475299999</v>
       </c>
       <c r="J4" t="n">
-        <v>10.6</v>
+        <v>10.6058217383</v>
       </c>
       <c r="K4" t="n">
-        <v>1.3</v>
+        <v>1.318990554</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11.973591</v>
       </c>
       <c r="C5" t="n">
-        <v>48.3</v>
+        <v>48.287198</v>
       </c>
       <c r="D5" t="n">
-        <v>11.4</v>
+        <v>11.442368</v>
       </c>
       <c r="E5" t="n">
-        <v>9.1</v>
+        <v>9.128698</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8</v>
+        <v>132.817807</v>
       </c>
       <c r="G5" t="n">
-        <v>26.1</v>
+        <v>26.095552</v>
       </c>
       <c r="H5" t="n">
-        <v>100.1</v>
+        <v>100.086072</v>
       </c>
       <c r="I5" t="n">
-        <v>9.699999999999999</v>
+        <v>9.660145</v>
       </c>
       <c r="J5" t="n">
-        <v>10.6</v>
+        <v>10.611959</v>
       </c>
       <c r="K5" t="n">
-        <v>1.3</v>
+        <v>1.331172</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12.1</v>
+        <v>12.1310620997</v>
       </c>
       <c r="C6" t="n">
-        <v>50.1</v>
+        <v>50.1257575583</v>
       </c>
       <c r="D6" t="n">
-        <v>11.5</v>
+        <v>11.4591605393</v>
       </c>
       <c r="E6" t="n">
-        <v>8.9</v>
+        <v>8.8901179019</v>
       </c>
       <c r="F6" t="n">
-        <v>130.1</v>
+        <v>130.1200912182</v>
       </c>
       <c r="G6" t="n">
-        <v>26.7</v>
+        <v>26.6678997134</v>
       </c>
       <c r="H6" t="n">
-        <v>99.2</v>
+        <v>99.1885421109</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>10.0149840289</v>
       </c>
       <c r="J6" t="n">
-        <v>10.4</v>
+        <v>10.4177313761</v>
       </c>
       <c r="K6" t="n">
-        <v>1.3</v>
+        <v>1.3312070994</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.2</v>
+        <v>12.2222706985</v>
       </c>
       <c r="C7" t="n">
-        <v>52.1</v>
+        <v>52.0905758601</v>
       </c>
       <c r="D7" t="n">
-        <v>11.4</v>
+        <v>11.3856864905</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>9.0029642792</v>
       </c>
       <c r="F7" t="n">
-        <v>127.2</v>
+        <v>127.2272746739</v>
       </c>
       <c r="G7" t="n">
-        <v>29.5</v>
+        <v>29.5234904034</v>
       </c>
       <c r="H7" t="n">
-        <v>96.09999999999999</v>
+        <v>96.0983860123</v>
       </c>
       <c r="I7" t="n">
-        <v>9.699999999999999</v>
+        <v>9.7036011216</v>
       </c>
       <c r="J7" t="n">
-        <v>9.6</v>
+        <v>9.643514291400001</v>
       </c>
       <c r="K7" t="n">
-        <v>1.3</v>
+        <v>1.3052155812</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.5</v>
+        <v>12.5072369149</v>
       </c>
       <c r="C8" t="n">
-        <v>56.4</v>
+        <v>56.4233866835</v>
       </c>
       <c r="D8" t="n">
-        <v>13.6</v>
+        <v>13.5687424738</v>
       </c>
       <c r="E8" t="n">
-        <v>10.8</v>
+        <v>10.795968135</v>
       </c>
       <c r="F8" t="n">
-        <v>130.1</v>
+        <v>130.1094332834</v>
       </c>
       <c r="G8" t="n">
-        <v>26.9</v>
+        <v>26.9056655875</v>
       </c>
       <c r="H8" t="n">
-        <v>98.59999999999999</v>
+        <v>98.60583190680001</v>
       </c>
       <c r="I8" t="n">
-        <v>10.7</v>
+        <v>10.6606203719</v>
       </c>
       <c r="J8" t="n">
-        <v>9.5</v>
+        <v>9.473508819599999</v>
       </c>
       <c r="K8" t="n">
-        <v>1.3</v>
+        <v>1.2725812361</v>
       </c>
     </row>
     <row r="9">
@@ -751,33 +751,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>12.9887044066315</v>
       </c>
       <c r="C9" t="n">
-        <v>56.3</v>
+        <v>56.2596316680732</v>
       </c>
       <c r="D9" t="n">
-        <v>13.9</v>
+        <v>13.8778304909106</v>
       </c>
       <c r="E9" t="n">
-        <v>12.7</v>
+        <v>12.747180303307</v>
       </c>
       <c r="F9" t="n">
-        <v>141.2</v>
+        <v>141.188930996034</v>
       </c>
       <c r="G9" t="n">
-        <v>24.8</v>
+        <v>24.7893999499941</v>
       </c>
       <c r="H9" t="n">
-        <v>103.7</v>
+        <v>103.664765283476</v>
       </c>
       <c r="I9" t="n">
-        <v>12.8</v>
+        <v>12.762604742767</v>
       </c>
       <c r="J9" t="n">
-        <v>10.4</v>
+        <v>10.3658582266933</v>
       </c>
       <c r="K9" t="n">
+        <v>1.28588624224285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>61</v>
+      </c>
+      <c r="D10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>144.6</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="H10" t="n">
+        <v>109.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.3</v>
       </c>
     </row>
